--- a/Data/Completing college/EducationReport(20).xlsx
+++ b/Data/Completing college/EducationReport(20).xlsx
@@ -323,2010 +323,2214 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">06000</t>
+          <t xml:space="preserve">22000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">California</t>
+          <t xml:space="preserve">Louisiana</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.373517225983159</v>
+        <v>0.0904971175426015</v>
       </c>
       <c s="7" r="E4">
-        <v>0.265219290306897</v>
+        <v>0.1390425780447</v>
       </c>
       <c s="7" r="F4">
-        <v>0.238053448051855</v>
+        <v>0.161262896167669</v>
       </c>
       <c s="7" r="G4">
-        <v>0.232065646582687</v>
+        <v>0.18727580357619</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.189801087741228</v>
+        <v>0.214235087736005</v>
       </c>
       <c s="7" r="J4">
-        <v>0.15807828990259</v>
+        <v>0.255303133042212</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">06001</t>
+          <t xml:space="preserve">22001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Alameda, CA        </t>
+          <t xml:space="preserve">Acadia, LA        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D5">
-        <v>0.369626261099116</v>
+        <v>0.0481941524937894</v>
       </c>
       <c s="7" r="E5">
-        <v>0.239901639973373</v>
+        <v>0.0735579172515206</v>
       </c>
       <c s="7" r="F5">
-        <v>0.185620013742032</v>
+        <v>0.0844497098939822</v>
       </c>
       <c s="7" r="G5">
-        <v>0.176447705606281</v>
+        <v>0.0944817698816518</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.137927603663711</v>
+        <v>0.0991579001254191</v>
       </c>
       <c s="7" r="J5">
-        <v>0.109955664929728</v>
+        <v>0.136138226235841</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">06003</t>
+          <t xml:space="preserve">22003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Alpine, CA        </t>
+          <t xml:space="preserve">Allen, LA        </t>
         </is>
       </c>
       <c s="8" r="C6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c s="7" r="D6">
-        <v>0.382575757575758</v>
+        <v>0.0354323308270677</v>
       </c>
       <c s="7" r="E6">
-        <v>0.13911620294599</v>
+        <v>0.074188176519567</v>
       </c>
       <c s="7" r="F6">
-        <v>0.124492557510149</v>
+        <v>0.0674860503694767</v>
       </c>
       <c s="7" r="G6">
-        <v>0.116687578419072</v>
+        <v>0.0925848843432241</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.0886392009987516</v>
+        <v>0.0961398397669337</v>
       </c>
       <c s="7" r="J6">
-        <v>0.0629514963880289</v>
+        <v>0.121329639889197</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">06005</t>
+          <t xml:space="preserve">22005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Amador, CA        </t>
+          <t xml:space="preserve">Ascension, LA        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c s="7" r="D7">
-        <v>0.413964732650739</v>
+        <v>0.043301365882011</v>
       </c>
       <c s="7" r="E7">
-        <v>0.232198383084577</v>
+        <v>0.0768025078369906</v>
       </c>
       <c s="7" r="F7">
-        <v>0.175261729352462</v>
+        <v>0.0926318935884023</v>
       </c>
       <c s="7" r="G7">
-        <v>0.160319386277349</v>
+        <v>0.145034372432876</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.125103906899418</v>
+        <v>0.232935743385349</v>
       </c>
       <c s="7" r="J7">
-        <v>0.086903073286052</v>
+        <v>0.287199902008819</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">06007</t>
+          <t xml:space="preserve">22007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Butte, CA        </t>
+          <t xml:space="preserve">Assumption, LA        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D8">
-        <v>0.429245200315596</v>
+        <v>0.0364327223960662</v>
       </c>
       <c s="7" r="E8">
-        <v>0.283649161421972</v>
+        <v>0.0652074783401733</v>
       </c>
       <c s="7" r="F8">
-        <v>0.223761617990044</v>
+        <v>0.0672141119221411</v>
       </c>
       <c s="7" r="G8">
-        <v>0.177352922610781</v>
+        <v>0.0736243147595587</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.132728408735906</v>
+        <v>0.0896596017983301</v>
       </c>
       <c s="7" r="J8">
-        <v>0.0966046972926207</v>
+        <v>0.108008571045935</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">06009</t>
+          <t xml:space="preserve">22009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Calaveras, CA        </t>
+          <t xml:space="preserve">Avoyelles, LA        </t>
         </is>
       </c>
       <c s="8" r="C9">
         <v>6</v>
       </c>
       <c s="7" r="D9">
-        <v>0.48066489668706</v>
+        <v>0.0406772766563279</v>
       </c>
       <c s="7" r="E9">
-        <v>0.236940566988056</v>
+        <v>0.0650097255240977</v>
       </c>
       <c s="7" r="F9">
-        <v>0.184468179795283</v>
+        <v>0.0739543174563694</v>
       </c>
       <c s="7" r="G9">
-        <v>0.143008801068457</v>
+        <v>0.0825377734345636</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.0724865217133717</v>
+        <v>0.0958894350644725</v>
       </c>
       <c s="7" r="J9">
-        <v>0.0919573116649023</v>
+        <v>0.123080859774821</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">06011</t>
+          <t xml:space="preserve">22011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Colusa, CA        </t>
+          <t xml:space="preserve">Beauregard, LA        </t>
         </is>
       </c>
       <c s="8" r="C10">
         <v>6</v>
       </c>
       <c s="7" r="D10">
-        <v>0.443428571428571</v>
+        <v>0.0730710270822688</v>
       </c>
       <c s="7" r="E10">
-        <v>0.353668054110302</v>
+        <v>0.113971043187724</v>
       </c>
       <c s="7" r="F10">
-        <v>0.370712401055409</v>
+        <v>0.130375389322988</v>
       </c>
       <c s="7" r="G10">
-        <v>0.359879032258065</v>
+        <v>0.137573683209736</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.304924823565511</v>
+        <v>0.157033619548037</v>
       </c>
       <c s="7" r="J10">
-        <v>0.266747955816956</v>
+        <v>0.182931339113284</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">06013</t>
+          <t xml:space="preserve">22013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Contra Costa, CA        </t>
+          <t xml:space="preserve">Bienville, LA        </t>
         </is>
       </c>
       <c s="8" r="C11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D11">
-        <v>0.321137059762629</v>
+        <v>0.0500170512674775</v>
       </c>
       <c s="7" r="E11">
-        <v>0.182966245210537</v>
+        <v>0.0871313672922252</v>
       </c>
       <c s="7" r="F11">
-        <v>0.135289722854204</v>
+        <v>0.0932709536133785</v>
       </c>
       <c s="7" r="G11">
-        <v>0.130852997166106</v>
+        <v>0.114726700747149</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.114030292402477</v>
+        <v>0.122080348800997</v>
       </c>
       <c s="7" r="J11">
-        <v>0.102561427045291</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">06015</t>
+          <t xml:space="preserve">22015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Del Norte, CA        </t>
+          <t xml:space="preserve">Bossier, LA        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="7" r="D12">
-        <v>0.499622451547949</v>
+        <v>0.0767960363336086</v>
       </c>
       <c s="7" r="E12">
-        <v>0.328831312017641</v>
+        <v>0.128321482035928</v>
       </c>
       <c s="7" r="F12">
-        <v>0.290570538731694</v>
+        <v>0.155181997661536</v>
       </c>
       <c s="7" r="G12">
-        <v>0.283601495205591</v>
+        <v>0.181213971945066</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.210611747996348</v>
+        <v>0.233344766628849</v>
       </c>
       <c s="7" r="J12">
-        <v>0.194132873166523</v>
+        <v>0.267755590211414</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">06017</t>
+          <t xml:space="preserve">22017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">El Dorado, CA        </t>
+          <t xml:space="preserve">Caddo, LA        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D13">
-        <v>0.363340010211696</v>
+        <v>0.113357153345406</v>
       </c>
       <c s="7" r="E13">
-        <v>0.188394072003825</v>
+        <v>0.160541021435125</v>
       </c>
       <c s="7" r="F13">
-        <v>0.141306923186277</v>
+        <v>0.182383810043385</v>
       </c>
       <c s="7" r="G13">
-        <v>0.109297941618904</v>
+        <v>0.205539239423688</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.0687001117654985</v>
+        <v>0.220277476202187</v>
       </c>
       <c s="7" r="J13">
-        <v>0.0532184963139325</v>
+        <v>0.240045953567238</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">06019</t>
+          <t xml:space="preserve">22019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Fresno, CA        </t>
+          <t xml:space="preserve">Calcasieu, LA        </t>
         </is>
       </c>
       <c s="8" r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D14">
-        <v>0.472838719352178</v>
+        <v>0.090512052409082</v>
       </c>
       <c s="7" r="E14">
-        <v>0.362520339276441</v>
+        <v>0.135746357957602</v>
       </c>
       <c s="7" r="F14">
-        <v>0.337671360723396</v>
+        <v>0.146539510069278</v>
       </c>
       <c s="7" r="G14">
-        <v>0.32475084515081</v>
+        <v>0.168614648708571</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.272083782376962</v>
+        <v>0.197869629725197</v>
       </c>
       <c s="7" r="J14">
-        <v>0.220923962181292</v>
+        <v>0.237963035281922</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">06021</t>
+          <t xml:space="preserve">22021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Glenn, CA        </t>
+          <t xml:space="preserve">Caldwell, LA        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c s="7" r="D15">
-        <v>0.463545283206031</v>
+        <v>0.0440571764245154</v>
       </c>
       <c s="7" r="E15">
-        <v>0.369551484523057</v>
+        <v>0.0748169372811207</v>
       </c>
       <c s="7" r="F15">
-        <v>0.331141072015784</v>
+        <v>0.09326171875</v>
       </c>
       <c s="7" r="G15">
-        <v>0.315361202559165</v>
+        <v>0.0878358855822017</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.265412807545883</v>
+        <v>0.111095017381228</v>
       </c>
       <c s="7" r="J15">
-        <v>0.235213731278015</v>
+        <v>0.121432818073722</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">06023</t>
+          <t xml:space="preserve">22023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Humboldt, CA        </t>
+          <t xml:space="preserve">Cameron, LA        </t>
         </is>
       </c>
       <c s="8" r="C16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c s="7" r="D16">
-        <v>0.443290917403231</v>
+        <v>0.0377772361686571</v>
       </c>
       <c s="7" r="E16">
-        <v>0.235542356986558</v>
+        <v>0.0693653376729048</v>
       </c>
       <c s="7" r="F16">
-        <v>0.194919290817677</v>
+        <v>0.0786174785100286</v>
       </c>
       <c s="7" r="G16">
-        <v>0.15089385406314</v>
+        <v>0.0792712162378136</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.0973585658253374</v>
+        <v>0.142022082701884</v>
       </c>
       <c s="7" r="J16">
-        <v>0.0900815434631989</v>
+        <v>0.171356147021546</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">06025</t>
+          <t xml:space="preserve">22025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Imperial, CA        </t>
+          <t xml:space="preserve">Catahoula, LA        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c s="7" r="D17">
-        <v>0.56925326197898</v>
+        <v>0.0562984976060756</v>
       </c>
       <c s="7" r="E17">
-        <v>0.491499002327902</v>
+        <v>0.0606731620903454</v>
       </c>
       <c s="7" r="F17">
-        <v>0.468067640781481</v>
+        <v>0.08729216152019</v>
       </c>
       <c s="7" r="G17">
-        <v>0.409627893629233</v>
+        <v>0.0940034762456547</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.361535266904258</v>
+        <v>0.0962627406568516</v>
       </c>
       <c s="7" r="J17">
-        <v>0.295600678353451</v>
+        <v>0.154736192533169</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">06027</t>
+          <t xml:space="preserve">22027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Inyo, CA        </t>
+          <t xml:space="preserve">Claiborne, LA        </t>
         </is>
       </c>
       <c s="8" r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c s="7" r="D18">
-        <v>0.382971904711035</v>
+        <v>0.0700453234445818</v>
       </c>
       <c s="7" r="E18">
-        <v>0.25845783960158</v>
+        <v>0.0982834722903384</v>
       </c>
       <c s="7" r="F18">
-        <v>0.183241609177583</v>
+        <v>0.101413427561837</v>
       </c>
       <c s="7" r="G18">
-        <v>0.17666719719879</v>
+        <v>0.124183006535948</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.113803450862716</v>
+        <v>0.126067472731885</v>
       </c>
       <c s="7" r="J18">
-        <v>0.0791502982685872</v>
+        <v>0.122192189393233</v>
       </c>
     </row>
     <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">06029</t>
+          <t xml:space="preserve">22029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Kern, CA        </t>
+          <t xml:space="preserve">Concordia, LA        </t>
         </is>
       </c>
       <c s="8" r="C19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D19">
-        <v>0.482987585851849</v>
+        <v>0.0533917256802087</v>
       </c>
       <c s="7" r="E19">
-        <v>0.37927164157916</v>
+        <v>0.0905733097799904</v>
       </c>
       <c s="7" r="F19">
-        <v>0.323515314417827</v>
+        <v>0.0909163030543435</v>
       </c>
       <c s="7" r="G19">
-        <v>0.31532813611804</v>
+        <v>0.0955205244264086</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.283616772554003</v>
+        <v>0.118026065309709</v>
       </c>
       <c s="7" r="J19">
-        <v>0.240520930097801</v>
+        <v>0.154847361363099</v>
       </c>
     </row>
     <row r="20" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">06031</t>
+          <t xml:space="preserve">22031</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Kings, CA        </t>
+          <t xml:space="preserve">De Soto, LA        </t>
         </is>
       </c>
       <c s="8" r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D20">
-        <v>0.508878757930309</v>
+        <v>0.0644637492895997</v>
       </c>
       <c s="7" r="E20">
-        <v>0.413220136563076</v>
+        <v>0.0841474095533248</v>
       </c>
       <c s="7" r="F20">
-        <v>0.344327109042052</v>
+        <v>0.0952411741885426</v>
       </c>
       <c s="7" r="G20">
-        <v>0.31173227835787</v>
+        <v>0.102494105968482</v>
       </c>
       <c s="3" t="str" r="H20"/>
       <c s="7" r="I20">
-        <v>0.287319753300903</v>
+        <v>0.116348314606742</v>
       </c>
       <c s="7" r="J20">
-        <v>0.263698957128762</v>
+        <v>0.144385610568262</v>
       </c>
     </row>
     <row r="21" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">06033</t>
+          <t xml:space="preserve">22033</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Lake, CA        </t>
+          <t xml:space="preserve">East Baton Rouge, LA        </t>
         </is>
       </c>
       <c s="8" r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="7" r="D21">
-        <v>0.495779653487339</v>
+        <v>0.165790924122726</v>
       </c>
       <c s="7" r="E21">
-        <v>0.335838037765233</v>
+        <v>0.237261702959969</v>
       </c>
       <c s="7" r="F21">
-        <v>0.291343399794222</v>
+        <v>0.27508147113594</v>
       </c>
       <c s="7" r="G21">
-        <v>0.227325195864135</v>
+        <v>0.307738405844368</v>
       </c>
       <c s="3" t="str" r="H21"/>
       <c s="7" r="I21">
-        <v>0.131069335831137</v>
+        <v>0.337343747710254</v>
       </c>
       <c s="7" r="J21">
-        <v>0.134048476907959</v>
+        <v>0.375106693989543</v>
       </c>
     </row>
     <row r="22" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">06035</t>
+          <t xml:space="preserve">22035</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Lassen, CA        </t>
+          <t xml:space="preserve">East Carroll, LA        </t>
         </is>
       </c>
       <c s="8" r="C22">
         <v>7</v>
       </c>
       <c s="7" r="D22">
-        <v>0.433465636097765</v>
+        <v>0.0553285665645216</v>
       </c>
       <c s="7" r="E22">
-        <v>0.268753973299428</v>
+        <v>0.097859855022437</v>
       </c>
       <c s="7" r="F22">
-        <v>0.272330784480317</v>
+        <v>0.103171570500573</v>
       </c>
       <c s="7" r="G22">
-        <v>0.203501284675347</v>
+        <v>0.123421147600144</v>
       </c>
       <c s="3" t="str" r="H22"/>
       <c s="7" r="I22">
-        <v>0.200959058671825</v>
+        <v>0.106559031281534</v>
       </c>
       <c s="7" r="J22">
-        <v>0.199523085145747</v>
+        <v>0.102016129032258</v>
       </c>
     </row>
     <row r="23" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">06037</t>
+          <t xml:space="preserve">22037</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Los Angeles, CA        </t>
+          <t xml:space="preserve">East Feliciana, LA        </t>
         </is>
       </c>
       <c s="8" r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D23">
-        <v>0.380274514081193</v>
+        <v>0.0444286295241968</v>
       </c>
       <c s="7" r="E23">
-        <v>0.301555150735707</v>
+        <v>0.0802752293577982</v>
       </c>
       <c s="7" r="F23">
-        <v>0.299716559555515</v>
+        <v>0.0891063610610353</v>
       </c>
       <c s="7" r="G23">
-        <v>0.300958635024481</v>
+        <v>0.112920660085033</v>
       </c>
       <c s="3" t="str" r="H23"/>
       <c s="7" r="I23">
-        <v>0.236392865236885</v>
+        <v>0.130042313117066</v>
       </c>
       <c s="7" r="J23">
-        <v>0.199571630472485</v>
+        <v>0.159128402529557</v>
       </c>
     </row>
     <row r="24" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">06039</t>
+          <t xml:space="preserve">22039</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Madera, CA        </t>
+          <t xml:space="preserve">Evangeline, LA        </t>
         </is>
       </c>
       <c s="8" r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c s="7" r="D24">
-        <v>0.584047608473598</v>
+        <v>0.0331150376868899</v>
       </c>
       <c s="7" r="E24">
-        <v>0.398967326430336</v>
+        <v>0.0662469355917094</v>
       </c>
       <c s="7" r="F24">
-        <v>0.365847675120773</v>
+        <v>0.0834646469780918</v>
       </c>
       <c s="7" r="G24">
-        <v>0.34613123078979</v>
+        <v>0.0946027613778997</v>
       </c>
       <c s="3" t="str" r="H24"/>
       <c s="7" r="I24">
-        <v>0.320045052362542</v>
+        <v>0.11323741677143</v>
       </c>
       <c s="7" r="J24">
-        <v>0.281912897040772</v>
+        <v>0.125728947982272</v>
       </c>
     </row>
     <row r="25" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">06041</t>
+          <t xml:space="preserve">22041</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">Marin, CA        </t>
+          <t xml:space="preserve">Franklin, LA        </t>
         </is>
       </c>
       <c s="8" r="C25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="7" r="D25">
-        <v>0.208771900466875</v>
+        <v>0.0679291889666529</v>
       </c>
       <c s="7" r="E25">
-        <v>0.101046319852033</v>
+        <v>0.0823494687131051</v>
       </c>
       <c s="7" r="F25">
-        <v>0.0805224994542547</v>
+        <v>0.102964235048159</v>
       </c>
       <c s="7" r="G25">
-        <v>0.0875368819885244</v>
+        <v>0.0975936824852865</v>
       </c>
       <c s="3" t="str" r="H25"/>
       <c s="7" r="I25">
-        <v>0.0787429948261211</v>
+        <v>0.118554076660121</v>
       </c>
       <c s="7" r="J25">
-        <v>0.0657602490918526</v>
+        <v>0.148018213032769</v>
       </c>
     </row>
     <row r="26" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">06043</t>
+          <t xml:space="preserve">22043</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">Mariposa, CA        </t>
+          <t xml:space="preserve">Grant, LA        </t>
         </is>
       </c>
       <c s="8" r="C26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="7" r="D26">
-        <v>0.444503593292521</v>
+        <v>0.0464079706345045</v>
       </c>
       <c s="7" r="E26">
-        <v>0.262793914246196</v>
+        <v>0.0742640270797005</v>
       </c>
       <c s="7" r="F26">
-        <v>0.221993127147766</v>
+        <v>0.0957386896940116</v>
       </c>
       <c s="7" r="G26">
-        <v>0.14931124959003</v>
+        <v>0.098062243100411</v>
       </c>
       <c s="3" t="str" r="H26"/>
       <c s="7" r="I26">
-        <v>0.106204222317966</v>
+        <v>0.110306332646687</v>
       </c>
       <c s="7" r="J26">
-        <v>0.0912454673277585</v>
+        <v>0.115094813512495</v>
       </c>
     </row>
     <row r="27" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">06045</t>
+          <t xml:space="preserve">22045</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Mendocino, CA        </t>
+          <t xml:space="preserve">Iberia, LA        </t>
         </is>
       </c>
       <c s="8" r="C27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c s="7" r="D27">
-        <v>0.431347325660122</v>
+        <v>0.0576585793627594</v>
       </c>
       <c s="7" r="E27">
-        <v>0.236264001544998</v>
+        <v>0.097104229469261</v>
       </c>
       <c s="7" r="F27">
-        <v>0.213492350778258</v>
+        <v>0.0904098444015051</v>
       </c>
       <c s="7" r="G27">
-        <v>0.191716766867067</v>
+        <v>0.1117479813488</v>
       </c>
       <c s="3" t="str" r="H27"/>
       <c s="7" r="I27">
-        <v>0.150176533377125</v>
+        <v>0.132423721529867</v>
       </c>
       <c s="7" r="J27">
-        <v>0.133597335420792</v>
+        <v>0.144519673797833</v>
       </c>
     </row>
     <row r="28" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">06047</t>
+          <t xml:space="preserve">22047</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B28">
         <is>
-          <t xml:space="preserve">Merced, CA        </t>
+          <t xml:space="preserve">Iberville, LA        </t>
         </is>
       </c>
       <c s="8" r="C28">
         <v>2</v>
       </c>
       <c s="7" r="D28">
-        <v>0.493491008600469</v>
+        <v>0.0393540507531551</v>
       </c>
       <c s="7" r="E28">
-        <v>0.396326232774831</v>
+        <v>0.0771387662570099</v>
       </c>
       <c s="7" r="F28">
-        <v>0.368603203837319</v>
+        <v>0.0886505712438025</v>
       </c>
       <c s="7" r="G28">
-        <v>0.361936174769758</v>
+        <v>0.0956352779489124</v>
       </c>
       <c s="3" t="str" r="H28"/>
       <c s="7" r="I28">
-        <v>0.33358550776468</v>
+        <v>0.123550756704133</v>
       </c>
       <c s="7" r="J28">
-        <v>0.296468654244807</v>
+        <v>0.156502943340692</v>
       </c>
     </row>
     <row r="29" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">06049</t>
+          <t xml:space="preserve">22049</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B29">
         <is>
-          <t xml:space="preserve">Modoc, CA        </t>
+          <t xml:space="preserve">Jackson, LA        </t>
         </is>
       </c>
       <c s="8" r="C29">
         <v>6</v>
       </c>
       <c s="7" r="D29">
-        <v>0.400679501698754</v>
+        <v>0.057893564907593</v>
       </c>
       <c s="7" r="E29">
-        <v>0.27695675971538</v>
+        <v>0.0881432205047936</v>
       </c>
       <c s="7" r="F29">
-        <v>0.277958740499457</v>
+        <v>0.0915233415233415</v>
       </c>
       <c s="7" r="G29">
-        <v>0.229424504950495</v>
+        <v>0.129198966408269</v>
       </c>
       <c s="3" t="str" r="H29"/>
       <c s="7" r="I29">
-        <v>0.149473991817651</v>
+        <v>0.139749029520628</v>
       </c>
       <c s="7" r="J29">
-        <v>0.145490554539915</v>
+        <v>0.123726616040007</v>
       </c>
     </row>
     <row r="30" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">06051</t>
+          <t xml:space="preserve">22051</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B30">
         <is>
-          <t xml:space="preserve">Mono, CA        </t>
+          <t xml:space="preserve">Jefferson, LA        </t>
         </is>
       </c>
       <c s="8" r="C30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c s="7" r="D30">
-        <v>0.311235471373224</v>
+        <v>0.110276932640753</v>
       </c>
       <c s="7" r="E30">
-        <v>0.117552657973922</v>
+        <v>0.161996483565003</v>
       </c>
       <c s="7" r="F30">
-        <v>0.122132766216011</v>
+        <v>0.187602251566238</v>
       </c>
       <c s="7" r="G30">
-        <v>0.120590269771732</v>
+        <v>0.214941039827822</v>
       </c>
       <c s="3" t="str" r="H30"/>
       <c s="7" r="I30">
-        <v>0.136612586545417</v>
+        <v>0.232030503311392</v>
       </c>
       <c s="7" r="J30">
-        <v>0.127829841002422</v>
+        <v>0.286527471247257</v>
       </c>
     </row>
     <row r="31" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">06053</t>
+          <t xml:space="preserve">22053</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B31">
         <is>
-          <t xml:space="preserve">Monterey, CA        </t>
+          <t xml:space="preserve">Jefferson Davis, LA        </t>
         </is>
       </c>
       <c s="8" r="C31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D31">
-        <v>0.375289020959758</v>
+        <v>0.0590519002860646</v>
       </c>
       <c s="7" r="E31">
-        <v>0.290336170898232</v>
+        <v>0.0873950559701493</v>
       </c>
       <c s="7" r="F31">
-        <v>0.271315635554046</v>
+        <v>0.0796565318356105</v>
       </c>
       <c s="7" r="G31">
-        <v>0.315658179315769</v>
+        <v>0.0993178999586606</v>
       </c>
       <c s="3" t="str" r="H31"/>
       <c s="7" r="I31">
-        <v>0.295632027415381</v>
+        <v>0.120257485613967</v>
       </c>
       <c s="7" r="J31">
-        <v>0.270105231637935</v>
+        <v>0.165135486265776</v>
       </c>
     </row>
     <row r="32" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">06055</t>
+          <t xml:space="preserve">22055</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B32">
         <is>
-          <t xml:space="preserve">Napa, CA        </t>
+          <t xml:space="preserve">Lafayette, LA        </t>
         </is>
       </c>
       <c s="8" r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D32">
-        <v>0.366484336151169</v>
+        <v>0.135305712067215</v>
       </c>
       <c s="7" r="E32">
-        <v>0.246209900990099</v>
+        <v>0.205445512613717</v>
       </c>
       <c s="7" r="F32">
-        <v>0.192739844425238</v>
+        <v>0.224634921941732</v>
       </c>
       <c s="7" r="G32">
-        <v>0.196037551526126</v>
+        <v>0.254684420268025</v>
       </c>
       <c s="3" t="str" r="H32"/>
       <c s="7" r="I32">
-        <v>0.17391678406659</v>
+        <v>0.275083767020746</v>
       </c>
       <c s="7" r="J32">
-        <v>0.147556953675986</v>
+        <v>0.339210767969727</v>
       </c>
     </row>
     <row r="33" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">06057</t>
+          <t xml:space="preserve">22057</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B33">
         <is>
-          <t xml:space="preserve">Nevada, CA        </t>
+          <t xml:space="preserve">Lafourche, LA        </t>
         </is>
       </c>
       <c s="8" r="C33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="7" r="D33">
-        <v>0.389661426844015</v>
+        <v>0.0569488485314372</v>
       </c>
       <c s="7" r="E33">
-        <v>0.180017452006981</v>
+        <v>0.0969175696129544</v>
       </c>
       <c s="7" r="F33">
-        <v>0.137182481487517</v>
+        <v>0.100092510658837</v>
       </c>
       <c s="7" r="G33">
-        <v>0.0968410388653527</v>
+        <v>0.123597716984846</v>
       </c>
       <c s="3" t="str" r="H33"/>
       <c s="7" r="I33">
-        <v>0.0504288164665523</v>
+        <v>0.150039027032193</v>
       </c>
       <c s="7" r="J33">
-        <v>0.0487019597862051</v>
+        <v>0.173470761589899</v>
       </c>
     </row>
     <row r="34" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">06059</t>
+          <t xml:space="preserve">22059</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B34">
         <is>
-          <t xml:space="preserve">Orange, CA        </t>
+          <t xml:space="preserve">La Salle, LA        </t>
         </is>
       </c>
       <c s="8" r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D34">
-        <v>0.29455245245041</v>
+        <v>0.0453940362087327</v>
       </c>
       <c s="7" r="E34">
-        <v>0.196314716197598</v>
+        <v>0.0996187800963082</v>
       </c>
       <c s="7" r="F34">
-        <v>0.187512882811728</v>
+        <v>0.0790676416819013</v>
       </c>
       <c s="7" r="G34">
-        <v>0.205364232713669</v>
+        <v>0.111834255342228</v>
       </c>
       <c s="3" t="str" r="H34"/>
       <c s="7" r="I34">
-        <v>0.16404767883225</v>
+        <v>0.136440425320481</v>
       </c>
       <c s="7" r="J34">
-        <v>0.133889194835221</v>
+        <v>0.169594185342217</v>
       </c>
     </row>
     <row r="35" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">06061</t>
+          <t xml:space="preserve">22061</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B35">
         <is>
-          <t xml:space="preserve">Placer, CA        </t>
+          <t xml:space="preserve">Lincoln, LA        </t>
         </is>
       </c>
       <c s="8" r="C35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c s="7" r="D35">
-        <v>0.369462404898444</v>
+        <v>0.186981274435832</v>
       </c>
       <c s="7" r="E35">
-        <v>0.225546302326548</v>
+        <v>0.237122944571491</v>
       </c>
       <c s="7" r="F35">
-        <v>0.148625264372236</v>
+        <v>0.262479949448306</v>
       </c>
       <c s="7" r="G35">
-        <v>0.0954525178728586</v>
+        <v>0.318101455188358</v>
       </c>
       <c s="3" t="str" r="H35"/>
       <c s="7" r="I35">
-        <v>0.0644503579641237</v>
+        <v>0.336148980473814</v>
       </c>
       <c s="7" r="J35">
-        <v>0.0517440189605072</v>
+        <v>0.37609934699732</v>
       </c>
     </row>
     <row r="36" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">06063</t>
+          <t xml:space="preserve">22063</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B36">
         <is>
-          <t xml:space="preserve">Plumas, CA        </t>
+          <t xml:space="preserve">Livingston, LA        </t>
         </is>
       </c>
       <c s="8" r="C36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c s="7" r="D36">
-        <v>0.394080996884735</v>
+        <v>0.0484501615005383</v>
       </c>
       <c s="7" r="E36">
-        <v>0.215561224489796</v>
+        <v>0.0807481603941781</v>
       </c>
       <c s="7" r="F36">
-        <v>0.1733304360423</v>
+        <v>0.0871622763599488</v>
       </c>
       <c s="7" r="G36">
-        <v>0.11970783173272</v>
+        <v>0.114297339371639</v>
       </c>
       <c s="3" t="str" r="H36"/>
       <c s="7" r="I36">
-        <v>0.0984054973647341</v>
+        <v>0.178479161589081</v>
       </c>
       <c s="7" r="J36">
-        <v>0.0544959128065395</v>
+        <v>0.202514982876712</v>
       </c>
     </row>
     <row r="37" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">06065</t>
+          <t xml:space="preserve">22065</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B37">
         <is>
-          <t xml:space="preserve">Riverside, CA        </t>
+          <t xml:space="preserve">Madison, LA        </t>
         </is>
       </c>
       <c s="8" r="C37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c s="7" r="D37">
-        <v>0.415561699707826</v>
+        <v>0.0721833401948676</v>
       </c>
       <c s="7" r="E37">
-        <v>0.310909913538078</v>
+        <v>0.0908319185059423</v>
       </c>
       <c s="7" r="F37">
-        <v>0.259436598340014</v>
+        <v>0.0922482837528604</v>
       </c>
       <c s="7" r="G37">
-        <v>0.250498918831141</v>
+        <v>0.110039113428944</v>
       </c>
       <c s="3" t="str" r="H37"/>
       <c s="7" r="I37">
-        <v>0.207621541802324</v>
+        <v>0.11546785486951</v>
       </c>
       <c s="7" r="J37">
-        <v>0.170094951799277</v>
+        <v>0.150759699070659</v>
       </c>
     </row>
     <row r="38" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">06067</t>
+          <t xml:space="preserve">22067</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B38">
         <is>
-          <t xml:space="preserve">Sacramento, CA        </t>
+          <t xml:space="preserve">Morehouse, LA        </t>
         </is>
       </c>
       <c s="8" r="C38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D38">
-        <v>0.341558926656465</v>
+        <v>0.0565358080468893</v>
       </c>
       <c s="7" r="E38">
-        <v>0.220462247759294</v>
+        <v>0.0756717426329193</v>
       </c>
       <c s="7" r="F38">
-        <v>0.177520336936531</v>
+        <v>0.105257689110557</v>
       </c>
       <c s="7" r="G38">
-        <v>0.167342405318918</v>
+        <v>0.0973464979944462</v>
       </c>
       <c s="3" t="str" r="H38"/>
       <c s="7" r="I38">
-        <v>0.144262463160788</v>
+        <v>0.11436398796734</v>
       </c>
       <c s="7" r="J38">
-        <v>0.119347821812124</v>
+        <v>0.114752219994271</v>
       </c>
     </row>
     <row r="39" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">06069</t>
+          <t xml:space="preserve">22069</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B39">
         <is>
-          <t xml:space="preserve">San Benito, CA        </t>
+          <t xml:space="preserve">Natchitoches, LA        </t>
         </is>
       </c>
       <c s="8" r="C39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D39">
-        <v>0.559483843894251</v>
+        <v>0.104365337913878</v>
       </c>
       <c s="7" r="E39">
-        <v>0.434955528237761</v>
+        <v>0.16037154637221</v>
       </c>
       <c s="7" r="F39">
-        <v>0.31568135128966</v>
+        <v>0.163874011105105</v>
       </c>
       <c s="7" r="G39">
-        <v>0.250820037578421</v>
+        <v>0.184269050969001</v>
       </c>
       <c s="3" t="str" r="H39"/>
       <c s="7" r="I39">
-        <v>0.24405631170045</v>
+        <v>0.206211705049651</v>
       </c>
       <c s="7" r="J39">
-        <v>0.167487804286096</v>
+        <v>0.216249505124709</v>
       </c>
     </row>
     <row r="40" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">06071</t>
+          <t xml:space="preserve">22071</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B40">
         <is>
-          <t xml:space="preserve">San Bernardino, CA        </t>
+          <t xml:space="preserve">Orleans, LA        </t>
         </is>
       </c>
       <c s="8" r="C40">
         <v>1</v>
       </c>
       <c s="7" r="D40">
-        <v>0.43319524946496</v>
+        <v>0.108121754183497</v>
       </c>
       <c s="7" r="E40">
-        <v>0.289611877122826</v>
+        <v>0.177084183497297</v>
       </c>
       <c s="7" r="F40">
-        <v>0.246058572211419</v>
+        <v>0.224381689148214</v>
       </c>
       <c s="7" r="G40">
-        <v>0.257908027577285</v>
+        <v>0.257535732346757</v>
       </c>
       <c s="3" t="str" r="H40"/>
       <c s="7" r="I40">
-        <v>0.219512616291404</v>
+        <v>0.330149272204075</v>
       </c>
       <c s="7" r="J40">
-        <v>0.188953636077249</v>
+        <v>0.391016101155281</v>
       </c>
     </row>
     <row r="41" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">06073</t>
+          <t xml:space="preserve">22073</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B41">
         <is>
-          <t xml:space="preserve">San Diego, CA        </t>
+          <t xml:space="preserve">Ouachita, LA        </t>
         </is>
       </c>
       <c s="8" r="C41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c s="7" r="D41">
-        <v>0.346978509427967</v>
+        <v>0.106321589348722</v>
       </c>
       <c s="7" r="E41">
-        <v>0.219993440374495</v>
+        <v>0.152836014075582</v>
       </c>
       <c s="7" r="F41">
-        <v>0.180773540802089</v>
+        <v>0.188546607298422</v>
       </c>
       <c s="7" r="G41">
-        <v>0.17416359193764</v>
+        <v>0.227343661653285</v>
       </c>
       <c s="3" t="str" r="H41"/>
       <c s="7" r="I41">
-        <v>0.145982842571745</v>
+        <v>0.228045281768185</v>
       </c>
       <c s="7" r="J41">
-        <v>0.116848285961886</v>
+        <v>0.248491445157348</v>
       </c>
     </row>
     <row r="42" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">06075</t>
+          <t xml:space="preserve">22075</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B42">
         <is>
-          <t xml:space="preserve">San Francisco, CA        </t>
+          <t xml:space="preserve">Plaquemines, LA        </t>
         </is>
       </c>
       <c s="8" r="C42">
         <v>1</v>
       </c>
       <c s="7" r="D42">
-        <v>0.382236596916948</v>
+        <v>0.047109952194698</v>
       </c>
       <c s="7" r="E42">
-        <v>0.260342845698574</v>
+        <v>0.057034795763994</v>
       </c>
       <c s="7" r="F42">
-        <v>0.219833400184696</v>
+        <v>0.0752955400322407</v>
       </c>
       <c s="7" r="G42">
-        <v>0.188090063023976</v>
+        <v>0.107915856031128</v>
       </c>
       <c s="3" t="str" r="H42"/>
       <c s="7" r="I42">
-        <v>0.140886617507951</v>
+        <v>0.16232059834243</v>
       </c>
       <c s="7" r="J42">
-        <v>0.112196630037055</v>
+        <v>0.171341185657578</v>
       </c>
     </row>
     <row r="43" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">06077</t>
+          <t xml:space="preserve">22077</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B43">
         <is>
-          <t xml:space="preserve">San Joaquin, CA        </t>
+          <t xml:space="preserve">Pointe Coupee, LA        </t>
         </is>
       </c>
       <c s="8" r="C43">
         <v>2</v>
       </c>
       <c s="7" r="D43">
-        <v>0.505533749233618</v>
+        <v>0.0385815602836879</v>
       </c>
       <c s="7" r="E43">
-        <v>0.373576061481441</v>
+        <v>0.0797630951465272</v>
       </c>
       <c s="7" r="F43">
-        <v>0.313712081179002</v>
+        <v>0.0966420367254371</v>
       </c>
       <c s="7" r="G43">
-        <v>0.287653040423057</v>
+        <v>0.127598271249228</v>
       </c>
       <c s="3" t="str" r="H43"/>
       <c s="7" r="I43">
-        <v>0.232449952611435</v>
+        <v>0.145327162874405</v>
       </c>
       <c s="7" r="J43">
-        <v>0.197005280583465</v>
+        <v>0.152199192831247</v>
       </c>
     </row>
     <row r="44" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">06079</t>
+          <t xml:space="preserve">22079</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B44">
         <is>
-          <t xml:space="preserve">San Luis Obispo, CA        </t>
+          <t xml:space="preserve">Rapides, LA        </t>
         </is>
       </c>
       <c s="8" r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D44">
-        <v>0.402165078596503</v>
+        <v>0.090071885248617</v>
       </c>
       <c s="7" r="E44">
-        <v>0.231911467508186</v>
+        <v>0.119357819048512</v>
       </c>
       <c s="7" r="F44">
-        <v>0.166606708589354</v>
+        <v>0.145798156416895</v>
       </c>
       <c s="7" r="G44">
-        <v>0.144249855524008</v>
+        <v>0.165453383618799</v>
       </c>
       <c s="3" t="str" r="H44"/>
       <c s="7" r="I44">
-        <v>0.105036631574234</v>
+        <v>0.182734851660379</v>
       </c>
       <c s="7" r="J44">
-        <v>0.0806733815671254</v>
+        <v>0.215380534443586</v>
       </c>
     </row>
     <row r="45" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">06081</t>
+          <t xml:space="preserve">22081</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B45">
         <is>
-          <t xml:space="preserve">San Mateo, CA        </t>
+          <t xml:space="preserve">Red River, LA        </t>
         </is>
       </c>
       <c s="8" r="C45">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c s="7" r="D45">
-        <v>0.285137277441277</v>
+        <v>0.0410930758167249</v>
       </c>
       <c s="7" r="E45">
-        <v>0.184236975601263</v>
+        <v>0.0677792915531335</v>
       </c>
       <c s="7" r="F45">
-        <v>0.158945133484682</v>
+        <v>0.0868945868945869</v>
       </c>
       <c s="7" r="G45">
-        <v>0.147187860122174</v>
+        <v>0.0873618784530387</v>
       </c>
       <c s="3" t="str" r="H45"/>
       <c s="7" r="I45">
-        <v>0.11681602571951</v>
+        <v>0.109607577807848</v>
       </c>
       <c s="7" r="J45">
-        <v>0.091809601835757</v>
+        <v>0.123501427212179</v>
       </c>
     </row>
     <row r="46" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">06083</t>
+          <t xml:space="preserve">22083</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B46">
         <is>
-          <t xml:space="preserve">Santa Barbara, CA        </t>
+          <t xml:space="preserve">Richland, LA        </t>
         </is>
       </c>
       <c s="8" r="C46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c s="7" r="D46">
-        <v>0.287187039764359</v>
+        <v>0.0677812923633077</v>
       </c>
       <c s="7" r="E46">
-        <v>0.208685648221613</v>
+        <v>0.076237146529563</v>
       </c>
       <c s="7" r="F46">
-        <v>0.199509827229227</v>
+        <v>0.106840338820521</v>
       </c>
       <c s="7" r="G46">
-        <v>0.207596188530736</v>
+        <v>0.128177641653905</v>
       </c>
       <c s="3" t="str" r="H46"/>
       <c s="7" r="I46">
-        <v>0.203452221061533</v>
+        <v>0.123679577464789</v>
       </c>
       <c s="7" r="J46">
-        <v>0.180919821505686</v>
+        <v>0.153706395348837</v>
       </c>
     </row>
     <row r="47" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">06085</t>
+          <t xml:space="preserve">22085</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B47">
         <is>
-          <t xml:space="preserve">Santa Clara, CA        </t>
+          <t xml:space="preserve">Sabine, LA        </t>
         </is>
       </c>
       <c s="8" r="C47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c s="7" r="D47">
-        <v>0.310305361742153</v>
+        <v>0.0502671680189986</v>
       </c>
       <c s="7" r="E47">
-        <v>0.20494875949273</v>
+        <v>0.0708487084870849</v>
       </c>
       <c s="7" r="F47">
-        <v>0.179653317712763</v>
+        <v>0.0834440791774498</v>
       </c>
       <c s="7" r="G47">
-        <v>0.166029083839297</v>
+        <v>0.110930595269041</v>
       </c>
       <c s="3" t="str" r="H47"/>
       <c s="7" r="I47">
-        <v>0.134994860654604</v>
+        <v>0.124017199017199</v>
       </c>
       <c s="7" r="J47">
-        <v>0.108127336271984</v>
+        <v>0.127515024823622</v>
       </c>
     </row>
     <row r="48" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">06087</t>
+          <t xml:space="preserve">22087</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B48">
         <is>
-          <t xml:space="preserve">Santa Cruz, CA        </t>
+          <t xml:space="preserve">St. Bernard, LA        </t>
         </is>
       </c>
       <c s="8" r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D48">
-        <v>0.369173553719008</v>
+        <v>0.0370073694328741</v>
       </c>
       <c s="7" r="E48">
-        <v>0.222103316610448</v>
+        <v>0.0565275533515351</v>
       </c>
       <c s="7" r="F48">
-        <v>0.181294098564516</v>
+        <v>0.0727311786890724</v>
       </c>
       <c s="7" r="G48">
-        <v>0.167782835047485</v>
+        <v>0.0893330613909851</v>
       </c>
       <c s="3" t="str" r="H48"/>
       <c s="7" r="I48">
-        <v>0.151219022538189</v>
+        <v>0.114419173178504</v>
       </c>
       <c s="7" r="J48">
-        <v>0.117243103591966</v>
+        <v>0.146604296604297</v>
       </c>
     </row>
     <row r="49" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">06089</t>
+          <t xml:space="preserve">22089</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B49">
         <is>
-          <t xml:space="preserve">Shasta, CA        </t>
+          <t xml:space="preserve">St. Charles, LA        </t>
         </is>
       </c>
       <c s="8" r="C49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c s="7" r="D49">
-        <v>0.411412187727668</v>
+        <v>0.0593010146561443</v>
       </c>
       <c s="7" r="E49">
-        <v>0.243908749838285</v>
+        <v>0.102844295723099</v>
       </c>
       <c s="7" r="F49">
-        <v>0.216186580068323</v>
+        <v>0.147511988051254</v>
       </c>
       <c s="7" r="G49">
-        <v>0.167350287120591</v>
+        <v>0.175053297688742</v>
       </c>
       <c s="3" t="str" r="H49"/>
       <c s="7" r="I49">
-        <v>0.118712950951576</v>
+        <v>0.19963326629599</v>
       </c>
       <c s="7" r="J49">
-        <v>0.0893561103810775</v>
+        <v>0.284467367585796</v>
       </c>
     </row>
     <row r="50" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">06091</t>
+          <t xml:space="preserve">22091</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B50">
         <is>
-          <t xml:space="preserve">Sierra, CA        </t>
+          <t xml:space="preserve">St. Helena, LA        </t>
         </is>
       </c>
       <c s="8" r="C50">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c s="7" r="D50">
-        <v>0.416500332667997</v>
+        <v>0.0525033229951263</v>
       </c>
       <c s="7" r="E50">
-        <v>0.219024390243902</v>
+        <v>0.0864949872223314</v>
       </c>
       <c s="7" r="F50">
-        <v>0.245140817136057</v>
+        <v>0.0772719344147916</v>
       </c>
       <c s="7" r="G50">
-        <v>0.147637795275591</v>
+        <v>0.112035752812452</v>
       </c>
       <c s="3" t="str" r="H50"/>
       <c s="7" r="I50">
-        <v>0.0983009708737864</v>
+        <v>0.103996680956991</v>
       </c>
       <c s="7" r="J50">
-        <v>0.0563502384048548</v>
+        <v>0.124019673002791</v>
       </c>
     </row>
     <row r="51" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">06093</t>
+          <t xml:space="preserve">22093</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B51">
         <is>
-          <t xml:space="preserve">Siskiyou, CA        </t>
+          <t xml:space="preserve">St. James, LA        </t>
         </is>
       </c>
       <c s="8" r="C51">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c s="7" r="D51">
-        <v>0.434656890587081</v>
+        <v>0.0560075462799198</v>
       </c>
       <c s="7" r="E51">
-        <v>0.244036105738233</v>
+        <v>0.0820133095885275</v>
       </c>
       <c s="7" r="F51">
-        <v>0.226449587803111</v>
+        <v>0.0813711623263167</v>
       </c>
       <c s="7" r="G51">
-        <v>0.162244964474285</v>
+        <v>0.100623052959502</v>
       </c>
       <c s="3" t="str" r="H51"/>
       <c s="7" r="I51">
-        <v>0.113405583330746</v>
+        <v>0.126716166993556</v>
       </c>
       <c s="7" r="J51">
-        <v>0.100859634422617</v>
+        <v>0.182648078692237</v>
       </c>
     </row>
     <row r="52" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">06095</t>
+          <t xml:space="preserve">22095</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B52">
         <is>
-          <t xml:space="preserve">Solano, CA        </t>
+          <t xml:space="preserve">St. John the Baptist, LA        </t>
         </is>
       </c>
       <c s="8" r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c s="7" r="D52">
-        <v>0.372793847103367</v>
+        <v>0.0387582489078911</v>
       </c>
       <c s="7" r="E52">
-        <v>0.231517095641334</v>
+        <v>0.0979778376009516</v>
       </c>
       <c s="7" r="F52">
-        <v>0.173164506041291</v>
+        <v>0.113818996179686</v>
       </c>
       <c s="7" r="G52">
-        <v>0.162393301093765</v>
+        <v>0.129014461914332</v>
       </c>
       <c s="3" t="str" r="H52"/>
       <c s="7" r="I52">
-        <v>0.132736563487979</v>
+        <v>0.151159976489299</v>
       </c>
       <c s="7" r="J52">
-        <v>0.111493027885259</v>
+        <v>0.160170867754007</v>
       </c>
     </row>
     <row r="53" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">06097</t>
+          <t xml:space="preserve">22097</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B53">
         <is>
-          <t xml:space="preserve">Sonoma, CA        </t>
+          <t xml:space="preserve">St. Landry, LA        </t>
         </is>
       </c>
       <c s="8" r="C53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D53">
-        <v>0.363829232240675</v>
+        <v>0.0528439411688143</v>
       </c>
       <c s="7" r="E53">
-        <v>0.224416526604685</v>
+        <v>0.0829516998668983</v>
       </c>
       <c s="7" r="F53">
-        <v>0.156038731373572</v>
+        <v>0.0970961887477314</v>
       </c>
       <c s="7" r="G53">
-        <v>0.150823319111181</v>
+        <v>0.107254814151366</v>
       </c>
       <c s="3" t="str" r="H53"/>
       <c s="7" r="I53">
-        <v>0.133117010519326</v>
+        <v>0.131792664670659</v>
       </c>
       <c s="7" r="J53">
-        <v>0.108344905946219</v>
+        <v>0.147033741193919</v>
       </c>
     </row>
     <row r="54" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A54">
         <is>
-          <t xml:space="preserve">06099</t>
+          <t xml:space="preserve">22099</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B54">
         <is>
-          <t xml:space="preserve">Stanislaus, CA        </t>
+          <t xml:space="preserve">St. Martin, LA        </t>
         </is>
       </c>
       <c s="8" r="C54">
         <v>2</v>
       </c>
       <c s="7" r="D54">
-        <v>0.496024604602889</v>
+        <v>0.0361884224004313</v>
       </c>
       <c s="7" r="E54">
-        <v>0.38002057033548</v>
+        <v>0.0673939031679617</v>
       </c>
       <c s="7" r="F54">
-        <v>0.315937609944881</v>
+        <v>0.0670605964467005</v>
       </c>
       <c s="7" r="G54">
-        <v>0.296422983014461</v>
+        <v>0.0854576763345376</v>
       </c>
       <c s="3" t="str" r="H54"/>
       <c s="7" r="I54">
-        <v>0.240375308830646</v>
+        <v>0.128677994198094</v>
       </c>
       <c s="7" r="J54">
-        <v>0.200468792086698</v>
+        <v>0.148606548091084</v>
       </c>
     </row>
     <row r="55" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A55">
         <is>
-          <t xml:space="preserve">06101</t>
+          <t xml:space="preserve">22101</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B55">
         <is>
-          <t xml:space="preserve">Sutter, CA        </t>
+          <t xml:space="preserve">St. Mary, LA        </t>
         </is>
       </c>
       <c s="8" r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c s="7" r="D55">
-        <v>0.42684298115414</v>
+        <v>0.0578787440312545</v>
       </c>
       <c s="7" r="E55">
-        <v>0.322966348701643</v>
+        <v>0.0916792458642679</v>
       </c>
       <c s="7" r="F55">
-        <v>0.277111456817383</v>
+        <v>0.0834276860735355</v>
       </c>
       <c s="7" r="G55">
-        <v>0.270220700617473</v>
+        <v>0.0941552566499789</v>
       </c>
       <c s="3" t="str" r="H55"/>
       <c s="7" r="I55">
-        <v>0.221294222641319</v>
+        <v>0.10671869697998</v>
       </c>
       <c s="7" r="J55">
-        <v>0.203508447404119</v>
+        <v>0.121627146361406</v>
       </c>
     </row>
     <row r="56" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A56">
         <is>
-          <t xml:space="preserve">06103</t>
+          <t xml:space="preserve">22103</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B56">
         <is>
-          <t xml:space="preserve">Tehama, CA        </t>
+          <t xml:space="preserve">St. Tammany, LA        </t>
         </is>
       </c>
       <c s="8" r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c s="7" r="D56">
-        <v>0.441818401061136</v>
+        <v>0.112582989836695</v>
       </c>
       <c s="7" r="E56">
-        <v>0.305215872223609</v>
+        <v>0.199860645244924</v>
       </c>
       <c s="7" r="F56">
-        <v>0.278322624281366</v>
+        <v>0.230684931506849</v>
       </c>
       <c s="7" r="G56">
-        <v>0.243402002151071</v>
+        <v>0.283200091087273</v>
       </c>
       <c s="3" t="str" r="H56"/>
       <c s="7" r="I56">
-        <v>0.19703551651709</v>
+        <v>0.299620556178058</v>
       </c>
       <c s="7" r="J56">
-        <v>0.142313003964895</v>
+        <v>0.364121294204499</v>
       </c>
     </row>
     <row r="57" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A57">
         <is>
-          <t xml:space="preserve">06105</t>
+          <t xml:space="preserve">22105</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B57">
         <is>
-          <t xml:space="preserve">Trinity, CA        </t>
+          <t xml:space="preserve">Tangipahoa, LA        </t>
         </is>
       </c>
       <c s="8" r="C57">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c s="7" r="D57">
-        <v>0.4328324736488</v>
+        <v>0.0776147201438618</v>
       </c>
       <c s="7" r="E57">
-        <v>0.255361397934869</v>
+        <v>0.119288061598983</v>
       </c>
       <c s="7" r="F57">
-        <v>0.258180591476442</v>
+        <v>0.129401319639218</v>
       </c>
       <c s="7" r="G57">
-        <v>0.189759355454256</v>
+        <v>0.16286367657614</v>
       </c>
       <c s="3" t="str" r="H57"/>
       <c s="7" r="I57">
-        <v>0.0874683790620743</v>
+        <v>0.193270963638291</v>
       </c>
       <c s="7" r="J57">
-        <v>0.0611542463779717</v>
+        <v>0.211775560809642</v>
       </c>
     </row>
     <row r="58" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A58">
         <is>
-          <t xml:space="preserve">06107</t>
+          <t xml:space="preserve">22107</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B58">
         <is>
-          <t xml:space="preserve">Tulare, CA        </t>
+          <t xml:space="preserve">Tensas, LA        </t>
         </is>
       </c>
       <c s="8" r="C58">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="7" r="D58">
-        <v>0.558010039222062</v>
+        <v>0.0580338703015283</v>
       </c>
       <c s="7" r="E58">
-        <v>0.442321239220223</v>
+        <v>0.0910832091934454</v>
       </c>
       <c s="7" r="F58">
-        <v>0.398041147167262</v>
+        <v>0.116989046842228</v>
       </c>
       <c s="7" r="G58">
-        <v>0.383194721018312</v>
+        <v>0.148051330798479</v>
       </c>
       <c s="3" t="str" r="H58"/>
       <c s="7" r="I58">
-        <v>0.319376942076329</v>
+        <v>0.104673943464875</v>
       </c>
       <c s="7" r="J58">
-        <v>0.273818971863609</v>
+        <v>0.133603238866397</v>
       </c>
     </row>
     <row r="59" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A59">
         <is>
-          <t xml:space="preserve">06109</t>
+          <t xml:space="preserve">22109</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B59">
         <is>
-          <t xml:space="preserve">Tuolumne, CA        </t>
+          <t xml:space="preserve">Terrebonne, LA        </t>
         </is>
       </c>
       <c s="8" r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c s="7" r="D59">
-        <v>0.411682892906815</v>
+        <v>0.0572619047619048</v>
       </c>
       <c s="7" r="E59">
-        <v>0.227408052031329</v>
+        <v>0.0975474396465239</v>
       </c>
       <c s="7" r="F59">
-        <v>0.200129286280963</v>
+        <v>0.0942375440362355</v>
       </c>
       <c s="7" r="G59">
-        <v>0.157246581317187</v>
+        <v>0.122520586050481</v>
       </c>
       <c s="3" t="str" r="H59"/>
       <c s="7" r="I59">
-        <v>0.116122305472709</v>
+        <v>0.138131451059479</v>
       </c>
       <c s="7" r="J59">
-        <v>0.0790824169327185</v>
+        <v>0.165371082562802</v>
       </c>
     </row>
     <row r="60" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A60">
         <is>
-          <t xml:space="preserve">06111</t>
+          <t xml:space="preserve">22111</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B60">
         <is>
-          <t xml:space="preserve">Ventura, CA        </t>
+          <t xml:space="preserve">Union, LA        </t>
         </is>
       </c>
       <c s="8" r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D60">
-        <v>0.362052346704234</v>
+        <v>0.051484367294605</v>
       </c>
       <c s="7" r="E60">
-        <v>0.240530385848305</v>
+        <v>0.0799016107276045</v>
       </c>
       <c s="7" r="F60">
-        <v>0.206419909950884</v>
+        <v>0.110311015780604</v>
       </c>
       <c s="7" r="G60">
-        <v>0.198984220656441</v>
+        <v>0.118024158175315</v>
       </c>
       <c s="3" t="str" r="H60"/>
       <c s="7" r="I60">
-        <v>0.17290097715815</v>
+        <v>0.130702836004932</v>
       </c>
       <c s="7" r="J60">
-        <v>0.143749401950294</v>
+        <v>0.166263603385732</v>
       </c>
     </row>
     <row r="61" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A61">
         <is>
-          <t xml:space="preserve">06113</t>
+          <t xml:space="preserve">22113</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B61">
         <is>
-          <t xml:space="preserve">Yolo, CA        </t>
+          <t xml:space="preserve">Vermilion, LA        </t>
         </is>
       </c>
       <c s="8" r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c s="7" r="D61">
-        <v>0.383994800887435</v>
+        <v>0.0434608184006419</v>
       </c>
       <c s="7" r="E61">
-        <v>0.265462533561142</v>
+        <v>0.0804231600500512</v>
       </c>
       <c s="7" r="F61">
-        <v>0.209328151027207</v>
+        <v>0.0880613290156296</v>
       </c>
       <c s="7" r="G61">
-        <v>0.20224683776448</v>
+        <v>0.107359590671109</v>
       </c>
       <c s="3" t="str" r="H61"/>
       <c s="7" r="I61">
-        <v>0.158387440310557</v>
+        <v>0.124713593009005</v>
       </c>
       <c s="7" r="J61">
-        <v>0.123989724954577</v>
+        <v>0.174169011149317</v>
       </c>
     </row>
     <row r="62" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A62">
         <is>
-          <t xml:space="preserve">06115</t>
+          <t xml:space="preserve">22115</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B62">
         <is>
-          <t xml:space="preserve">Yuba, CA        </t>
+          <t xml:space="preserve">Vernon, LA        </t>
         </is>
       </c>
       <c s="8" r="C62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="7" r="D62">
-        <v>0.434496594196137</v>
+        <v>0.0837023638745088</v>
       </c>
       <c s="7" r="E62">
-        <v>0.362021201935508</v>
+        <v>0.0842881213142376</v>
       </c>
       <c s="7" r="F62">
-        <v>0.315389618067873</v>
+        <v>0.103433574918834</v>
       </c>
       <c s="7" r="G62">
-        <v>0.281787722187518</v>
+        <v>0.135190425858365</v>
       </c>
       <c s="3" t="str" r="H62"/>
       <c s="7" r="I62">
-        <v>0.216327928750856</v>
+        <v>0.17847424843458</v>
       </c>
       <c s="7" r="J62">
-        <v>0.18832050701675</v>
-      </c>
-    </row>
-    <row r="63" ht="6" customHeight="1"/>
-    <row r="64" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A64">
+        <v>0.185631533391038</v>
+      </c>
+    </row>
+    <row r="63" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A63">
+        <is>
+          <t xml:space="preserve">22117</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">Washington, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C63">
+        <v>6</v>
+      </c>
+      <c s="7" r="D63">
+        <v>0.0638259210466542</v>
+      </c>
+      <c s="7" r="E63">
+        <v>0.0859757310523175</v>
+      </c>
+      <c s="7" r="F63">
+        <v>0.0862525758021784</v>
+      </c>
+      <c s="7" r="G63">
+        <v>0.109286685268656</v>
+      </c>
+      <c s="3" t="str" r="H63"/>
+      <c s="7" r="I63">
+        <v>0.111362477695641</v>
+      </c>
+      <c s="7" r="J63">
+        <v>0.106637196489205</v>
+      </c>
+    </row>
+    <row r="64" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A64">
+        <is>
+          <t xml:space="preserve">22119</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">Webster, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C64">
+        <v>2</v>
+      </c>
+      <c s="7" r="D64">
+        <v>0.0670574971815107</v>
+      </c>
+      <c s="7" r="E64">
+        <v>0.0889136190951303</v>
+      </c>
+      <c s="7" r="F64">
+        <v>0.100356426821118</v>
+      </c>
+      <c s="7" r="G64">
+        <v>0.126268645934915</v>
+      </c>
+      <c s="3" t="str" r="H64"/>
+      <c s="7" r="I64">
+        <v>0.136112506278252</v>
+      </c>
+      <c s="7" r="J64">
+        <v>0.144200263096804</v>
+      </c>
+    </row>
+    <row r="65" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A65">
+        <is>
+          <t xml:space="preserve">22121</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">West Baton Rouge, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C65">
+        <v>2</v>
+      </c>
+      <c s="7" r="D65">
+        <v>0.0627522458013279</v>
+      </c>
+      <c s="7" r="E65">
+        <v>0.0668250361495559</v>
+      </c>
+      <c s="7" r="F65">
+        <v>0.098583030931398</v>
+      </c>
+      <c s="7" r="G65">
+        <v>0.111186034314827</v>
+      </c>
+      <c s="3" t="str" r="H65"/>
+      <c s="7" r="I65">
+        <v>0.165801427644387</v>
+      </c>
+      <c s="7" r="J65">
+        <v>0.209369484999198</v>
+      </c>
+    </row>
+    <row r="66" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A66">
+        <is>
+          <t xml:space="preserve">22123</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">West Carroll, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C66">
+        <v>9</v>
+      </c>
+      <c s="7" r="D66">
+        <v>0.0445078459343795</v>
+      </c>
+      <c s="7" r="E66">
+        <v>0.0859405940594059</v>
+      </c>
+      <c s="7" r="F66">
+        <v>0.0869334746885767</v>
+      </c>
+      <c s="7" r="G66">
+        <v>0.0948211158368777</v>
+      </c>
+      <c s="3" t="str" r="H66"/>
+      <c s="7" r="I66">
+        <v>0.0969151670951157</v>
+      </c>
+      <c s="7" r="J66">
+        <v>0.114422103283668</v>
+      </c>
+    </row>
+    <row r="67" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A67">
+        <is>
+          <t xml:space="preserve">22125</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">West Feliciana, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C67">
+        <v>2</v>
+      </c>
+      <c s="7" r="D67">
+        <v>0.0293735800064914</v>
+      </c>
+      <c s="7" r="E67">
+        <v>0.0900888769189335</v>
+      </c>
+      <c s="7" r="F67">
+        <v>0.0776067634944721</v>
+      </c>
+      <c s="7" r="G67">
+        <v>0.105777281607591</v>
+      </c>
+      <c s="3" t="str" r="H67"/>
+      <c s="7" r="I67">
+        <v>0.187026474844641</v>
+      </c>
+      <c s="7" r="J67">
+        <v>0.228185654008439</v>
+      </c>
+    </row>
+    <row r="68" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A68">
+        <is>
+          <t xml:space="preserve">22127</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">Winn, LA        </t>
+        </is>
+      </c>
+      <c s="8" r="C68">
+        <v>6</v>
+      </c>
+      <c s="7" r="D68">
+        <v>0.0479664014146773</v>
+      </c>
+      <c s="7" r="E68">
+        <v>0.0805781033458721</v>
+      </c>
+      <c s="7" r="F68">
+        <v>0.089591957421644</v>
+      </c>
+      <c s="7" r="G68">
+        <v>0.0938429640313711</v>
+      </c>
+      <c s="3" t="str" r="H68"/>
+      <c s="7" r="I68">
+        <v>0.119655694286795</v>
+      </c>
+      <c s="7" r="J68">
+        <v>0.140486725663717</v>
+      </c>
+    </row>
+    <row r="69" ht="6" customHeight="1"/>
+    <row r="70" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A70">
         <is>
           <r>
             <rPr>
@@ -2641,10 +2845,16 @@
     <mergeCell ref="G60:H60"/>
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="A70:G70"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId7"/>
+    <hyperlink ref="A70" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
